--- a/output/chunk_15_18-02-2024.xlsx
+++ b/output/chunk_15_18-02-2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z19"/>
+  <dimension ref="A1:Z34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1704,20 +1704,16 @@
       <c r="B19" t="n">
         <v>1065360</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>386597841788</t>
-        </is>
+      <c r="C19" t="n">
+        <v>386597841788</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>['https://i.ebayimg.com/00/s/ODk5WDE2MDA=/z/xy4AAOSwt0BlnM1g/$_1.JPG?set_id=880000500F']</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>115280</t>
-        </is>
+      <c r="E19" t="n">
+        <v>115280</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1758,12 +1754,1022 @@
           <t>Taylormade Sim Max Iron Set 5-Pw, Aw Regular Flex Kbs Max 85 Steel 1065360 Good</t>
         </is>
       </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>445.49</t>
-        </is>
+      <c r="Y19" t="n">
+        <v>445.49</v>
       </c>
       <c r="Z19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>1065485</v>
+      </c>
+      <c r="C20" t="n">
+        <v>404296536427</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/MTYwMFgxNjAw/z/wKUAAOSwb~1kcOLy/$_57.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>33701</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Interior Parts &amp; Accessories:Seats, Parts &amp; Accessories:Seats</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Tesla</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0477-0599</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>1065502-00-A</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>1065485</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Tesla</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>['Driver Side']</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="n">
+        <v>2017</v>
+      </c>
+      <c r="W20" t="n">
+        <v>4</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>2017-2020 TESLA MODEL S FRONT DRIVER OUTER SEAT BOLSTER TRIM CUSHION HEATED OEM</t>
+        </is>
+      </c>
+      <c r="Y20" t="n">
+        <v>89.98999999999999</v>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>[{'Year': '2020', 'Make': 'Tesla', 'Model': 'S', 'Trim': 'Long Range Plus Sedan 4-Door', 'Engine': 'BATTERY EV (EV/BEV)'}, {'Year': '2019', 'Make': 'Tesla', 'Model': 'S', 'Trim': '75D Sedan 4-Door', 'Engine': 'BATTERY EV (EV/BEV)'}, {'Year': '2018', 'Make': 'Tesla', 'Model': 'S', 'Trim': '75D Sedan 4-Door', 'Engine': 'BATTERY EV (EV/BEV)'}, {'Year': '2017', 'Make': 'Tesla', 'Model': 'S', 'Trim': '75D Sedan 4-Door', 'Engine': 'BATTERY EV (EV/BEV)'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>1065646</v>
+      </c>
+      <c r="C21" t="n">
+        <v>265629552271</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/OTAwWDEyMDA=/z/as8AAOSw-fViSxkV/$_1.JPG?set_id=2']</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>261977</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Jewelry &amp; Watches:Engagement &amp; Wedding:Wedding &amp; Anniversary Bands</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Unbranded</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Solid 14K White Gold 7mm Wide Wedding Band 8.4g Size:9.5 (EL1065646)</t>
+        </is>
+      </c>
+      <c r="Y21" t="n">
+        <v>659.99</v>
+      </c>
+      <c r="Z21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>1065364</v>
+      </c>
+      <c r="C22" t="n">
+        <v>115992197866</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/MTIwMFgxNjAw/z/5xIAAOSw3ddc3Wor/$_57.JPG?set_id=8800005007']</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>184118</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Business &amp; Industrial:Hydraulics, Pneumatics, Pumps &amp; Plumbing:Valves &amp; Manifolds:Butterfly Valves</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Posi-Flate</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Black Posi-Flate 4" / 100mm Butterfly Valve</t>
+        </is>
+      </c>
+      <c r="Y22" t="n">
+        <v>160.71</v>
+      </c>
+      <c r="Z22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>1065543</v>
+      </c>
+      <c r="C23" t="n">
+        <v>115992744339</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/NzUwWDc1MA==/z/cRMAAOSwUSxjKGdn/$_12.PNG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>6755</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Other</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>RAD Powersports</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Fits 2003 Arctic Cat 400 4x4 MRP Hurricane Wheel 3455601</t>
+        </is>
+      </c>
+      <c r="Y23" t="n">
+        <v>102.35</v>
+      </c>
+      <c r="Z23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>1065645</v>
+      </c>
+      <c r="C24" t="n">
+        <v>192045047775</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/NTU0WDU3NQ==/z/8x8AAOSw4GVYRL3r/$_1.JPG?set_id=8800005007']</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>33717</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Vehicle Parts &amp; Accessories:Car Parts &amp; Accessories:Lighting &amp; Bulbs:Indicator Assemblies</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Does Not Apply</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Mondeo</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>unbranded</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>['Left']</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Indicator Assembly</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="n">
+        <v>350</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>FOR FORD FOCUS 98-04 MONDEO 00-07 SIDE WING INDICATOR LIGHT PAIR AMBER L+R</t>
+        </is>
+      </c>
+      <c r="Y24" t="n">
+        <v>27.03</v>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>[{'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '1998', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '1.4 16V', 'Engine': '1388cc 55KW 75HP FXDA;FXDB;FXDC;FXDD'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '1999', 'Variant': 'Petrol Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '1.4 16V', 'Engine': '1388cc 55KW 75HP FXDA;FXDB;FXDC;FXDD'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '1999', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '1.4 16V', 'Engine': '1388cc 55KW 75HP FXDA;FXDB;FXDC;FXDD'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2000', 'Variant': 'Petrol Saloon', 'BodyStyle': 'FWD I DFW', 'Cars Type': '1.4 16V', 'Engine': '1388cc 55KW 75HP FXDA;FXDB;FXDC;FXDD'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '1999', 'Variant': 'Petrol Saloon', 'BodyStyle': 'FWD I DFW', 'Cars Type': '1.4 16V', 'Engine': '1388cc 55KW 75HP FXDA;FXDB;FXDC;FXDD'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2004', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '1.4 16V', 'Engine': '1388cc 55KW 75HP FXDA;FXDB;FXDC;FXDD'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2002', 'Variant': 'Petrol Saloon', 'BodyStyle': 'FWD I DFW', 'Cars Type': '1.4 16V', 'Engine': '1388cc 55KW 75HP FXDA;FXDB;FXDC;FXDD'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2003', 'Variant': 'Petrol Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '1.4 16V', 'Engine': '1388cc 55KW 75HP FXDA;FXDB;FXDC;FXDD'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2002', 'Variant': 'Petrol Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '1.4 16V', 'Engine': '1388cc 55KW 75HP FXDA;FXDB;FXDC;FXDD'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2004', 'Variant': 'Petrol Saloon', 'BodyStyle': 'FWD I DFW', 'Cars Type': '1.4 16V', 'Engine': '1388cc 55KW 75HP FXDA;FXDB;FXDC;FXDD'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2001', 'Variant': 'Petrol Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '1.4 16V', 'Engine': '1388cc 55KW 75HP FXDA;FXDB;FXDC;FXDD'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2001', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '1.4 16V', 'Engine': '1388cc 55KW 75HP FXDA;FXDB;FXDC;FXDD'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2002', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '1.4 16V', 'Engine': '1388cc 55KW 75HP FXDA;FXDB;FXDC;FXDD'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2000', 'Variant': 'Petrol Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '1.4 16V', 'Engine': '1388cc 55KW 75HP FXDA;FXDB;FXDC;FXDD'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2003', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '1.4 16V', 'Engine': '1388cc 55KW 75HP FXDA;FXDB;FXDC;FXDD'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2001', 'Variant': 'Petrol Saloon', 'BodyStyle': 'FWD I DFW', 'Cars Type': '1.4 16V', 'Engine': '1388cc 55KW 75HP FXDA;FXDB;FXDC;FXDD'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2004', 'Variant': 'Petrol Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '1.4 16V', 'Engine': '1388cc 55KW 75HP FXDA;FXDB;FXDC;FXDD'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2003', 'Variant': 'Petrol Saloon', 'BodyStyle': 'FWD I DFW', 'Cars Type': '1.4 16V', 'Engine': '1388cc 55KW 75HP FXDA;FXDB;FXDC;FXDD'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2000', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '1.4 16V', 'Engine': '1388cc 55KW 75HP FXDA;FXDB;FXDC;FXDD'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2003', 'Variant': 'Petrol Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '1.6 16V', 'Engine': '1596cc 74KW 100HP FYDA;FYDB;FYDC;FYDD;FYDH'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2002', 'Variant': 'Petrol Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '1.6 16V', 'Engine': '1596cc 74KW 100HP FYDA;FYDB;FYDC;FYDD;FYDH'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2004', 'Variant': 'Petrol Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '1.6 16V', 'Engine': '1596cc 74KW 100HP FYDA;FYDB;FYDC;FYDD;FYDH'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '1999', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '1.6 16V', 'Engine': '1596cc 74KW 100HP FYDA;FYDB;FYDC;FYDD;FYDH'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2000', 'Variant': 'Petrol Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '1.6 16V', 'Engine': '1596cc 74KW 100HP FYDA;FYDB;FYDC;FYDD;FYDH'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '1999', 'Variant': 'Petrol Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '1.6 16V', 'Engine': '1596cc 74KW 100HP FYDA;FYDB;FYDC;FYDD;FYDH'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2002', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '1.6 16V', 'Engine': '1596cc 74KW 100HP FYDA;FYDB;FYDC;FYDD;FYDH'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2000', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '1.6 16V', 'Engine': '1596cc 74KW 100HP FYDA;FYDB;FYDC;FYDD;FYDH'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2001', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '1.6 16V', 'Engine': '1596cc 74KW 100HP FYDA;FYDB;FYDC;FYDD;FYDH'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2003', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '1.6 16V', 'Engine': '1596cc 74KW 100HP FYDA;FYDB;FYDC;FYDD;FYDH'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2004', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '1.6 16V', 'Engine': '1596cc 74KW 100HP FYDA;FYDB;FYDC;FYDD;FYDH'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2001', 'Variant': 'Petrol Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '1.6 16V', 'Engine': '1596cc 74KW 100HP FYDA;FYDB;FYDC;FYDD;FYDH'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '1998', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '1.6 16V', 'Engine': '1596cc 74KW 100HP FYDA;FYDB;FYDC;FYDD;FYDH'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '1999', 'Variant': 'Petrol Saloon', 'BodyStyle': 'FWD I DFW', 'Cars Type': '1.6 16V', 'Engine': '1596cc 74KW 100HP FYDA;FYDB;FYDC;FYDD;FYDH'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2001', 'Variant': 'Petrol Saloon', 'BodyStyle': 'FWD I DFW', 'Cars Type': '1.6 16V', 'Engine': '1596cc 74KW 100HP FYDA;FYDB;FYDC;FYDD;FYDH'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2000', 'Variant': 'Petrol Saloon', 'BodyStyle': 'FWD I DFW', 'Cars Type': '1.6 16V', 'Engine': '1596cc 74KW 100HP FYDA;FYDB;FYDC;FYDD;FYDH'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2002', 'Variant': 'Petrol Saloon', 'BodyStyle': 'FWD I DFW', 'Cars Type': '1.6 16V', 'Engine': '1596cc 74KW 100HP FYDA;FYDB;FYDC;FYDD;FYDH'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2003', 'Variant': 'Petrol Saloon', 'BodyStyle': 'FWD I DFW', 'Cars Type': '1.6 16V', 'Engine': '1596cc 74KW 100HP FYDA;FYDB;FYDC;FYDD;FYDH'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2004', 'Variant': 'Petrol Saloon', 'BodyStyle': 'FWD I DFW', 'Cars Type': '1.6 16V', 'Engine': '1596cc 74KW 100HP FYDA;FYDB;FYDC;FYDD;FYDH'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2002', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '1.6 16V Flexifuel', 'Engine': '1596cc 75KW 102HP FYDH'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2002', 'Variant': 'Petrol Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '1.6 16V Flexifuel', 'Engine': '1596cc 75KW 102HP FYDH'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2003', 'Variant': 'Petrol Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '1.6 16V Flexifuel', 'Engine': '1596cc 75KW 102HP FYDH'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2003', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '1.6 16V Flexifuel', 'Engine': '1596cc 75KW 102HP FYDH'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2004', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '1.6 16V Flexifuel', 'Engine': '1596cc 75KW 102HP FYDH'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2004', 'Variant': 'Petrol Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '1.6 16V Flexifuel', 'Engine': '1596cc 75KW 102HP FYDH'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2004', 'Variant': 'Diesel Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '1.8 DI / TDDi', 'Engine': '1753cc 55KW 75HP BHDA;BHDB'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2001', 'Variant': 'Diesel Saloon', 'BodyStyle': 'FWD I DFW', 'Cars Type': '1.8 Turbo DI / TDDi', 'Engine': '1753cc 55KW 75HP BHDA;BHDB'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '1999', 'Variant': 'Diesel Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '1.8 DI / TDDi', 'Engine': '1753cc 55KW 75HP BHDA;BHDB'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2000', 'Variant': 'Diesel Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '1.8 DI / TDDi', 'Engine': '1753cc 55KW 75HP BHDA;BHDB'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2004', 'Variant': 'Diesel Saloon', 'BodyStyle': 'FWD I DFW', 'Cars Type': '1.8 Turbo DI / TDDi', 'Engine': '1753cc 55KW 75HP BHDA;BHDB'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2003', 'Variant': 'Diesel Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '1.8 DI / TDDi', 'Engine': '1753cc 55KW 75HP BHDA;BHDB'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2002', 'Variant': 'Diesel Saloon', 'BodyStyle': 'FWD I DFW', 'Cars Type': '1.8 Turbo DI / TDDi', 'Engine': '1753cc 55KW 75HP BHDA;BHDB'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2003', 'Variant': 'Diesel Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '1.8 DI / TDDi', 'Engine': '1753cc 55KW 75HP BHDA;BHDB'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2000', 'Variant': 'Diesel Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '1.8 DI / TDDi', 'Engine': '1753cc 55KW 75HP BHDA;BHDB'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2001', 'Variant': 'Diesel Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '1.8 DI / TDDi', 'Engine': '1753cc 55KW 75HP BHDA;BHDB'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2002', 'Variant': 'Diesel Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '1.8 DI / TDDi', 'Engine': '1753cc 55KW 75HP BHDA;BHDB'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2003', 'Variant': 'Diesel Saloon', 'BodyStyle': 'FWD I DFW', 'Cars Type': '1.8 Turbo DI / TDDi', 'Engine': '1753cc 55KW 75HP BHDA;BHDB'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2001', 'Variant': 'Diesel Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '1.8 DI / TDDi', 'Engine': '1753cc 55KW 75HP BHDA;BHDB'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2002', 'Variant': 'Diesel Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '1.8 DI / TDDi', 'Engine': '1753cc 55KW 75HP BHDA;BHDB'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '1999', 'Variant': 'Diesel Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '1.8 DI / TDDi', 'Engine': '1753cc 55KW 75HP BHDA;BHDB'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2004', 'Variant': 'Diesel Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '1.8 DI / TDDi', 'Engine': '1753cc 55KW 75HP BHDA;BHDB'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2000', 'Variant': 'Diesel Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '1.8 Turbo DI / TDDi', 'Engine': '1753cc 66KW 90HP C9DA;C9DB;C9DC'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2002', 'Variant': 'Diesel Saloon', 'BodyStyle': 'FWD I DFW', 'Cars Type': '1.8 Turbo DI / TDDi', 'Engine': '1753cc 66KW 90HP C9DA;C9DB;C9DC'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2004', 'Variant': 'Diesel Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '1.8 Turbo DI / TDDi', 'Engine': '1753cc 66KW 90HP C9DA;C9DB;C9DC'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2003', 'Variant': 'Diesel Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '1.8 Turbo DI / TDDi', 'Engine': '1753cc 66KW 90HP C9DA;C9DB;C9DC'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2001', 'Variant': 'Diesel Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '1.8 Turbo DI / TDDi', 'Engine': '1753cc 66KW 90HP C9DA;C9DB;C9DC'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2003', 'Variant': 'Diesel Saloon', 'BodyStyle': 'FWD I DFW', 'Cars Type': '1.8 Turbo DI / TDDi', 'Engine': '1753cc 66KW 90HP C9DA;C9DB;C9DC'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '1999', 'Variant': 'Diesel Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '1.8 Turbo DI / TDDi', 'Engine': '1753cc 66KW 90HP C9DA;C9DB;C9DC'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '1998', 'Variant': 'Diesel Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '1.8 Turbo DI / TDDi', 'Engine': '1753cc 66KW 90HP C9DA;C9DB;C9DC'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2004', 'Variant': 'Diesel Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '1.8 Turbo DI / TDDi', 'Engine': '1753cc 66KW 90HP C9DA;C9DB;C9DC'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2002', 'Variant': 'Diesel Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '1.8 Turbo DI / TDDi', 'Engine': '1753cc 66KW 90HP C9DA;C9DB;C9DC'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2003', 'Variant': 'Diesel Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '1.8 Turbo DI / TDDi', 'Engine': '1753cc 66KW 90HP C9DA;C9DB;C9DC'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2004', 'Variant': 'Diesel Saloon', 'BodyStyle': 'FWD I DFW', 'Cars Type': '1.8 Turbo DI / TDDi', 'Engine': '1753cc 66KW 90HP C9DA;C9DB;C9DC'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2002', 'Variant': 'Diesel Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '1.8 Turbo DI / TDDi', 'Engine': '1753cc 66KW 90HP C9DA;C9DB;C9DC'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2001', 'Variant': 'Diesel Saloon', 'BodyStyle': 'FWD I DFW', 'Cars Type': '1.8 Turbo DI / TDDi', 'Engine': '1753cc 66KW 90HP C9DA;C9DB;C9DC'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2000', 'Variant': 'Diesel Saloon', 'BodyStyle': 'FWD I DFW', 'Cars Type': '1.8 Turbo DI / TDDi', 'Engine': '1753cc 66KW 90HP C9DA;C9DB;C9DC'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '1999', 'Variant': 'Diesel Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '1.8 Turbo DI / TDDi', 'Engine': '1753cc 66KW 90HP C9DA;C9DB;C9DC'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2001', 'Variant': 'Diesel Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '1.8 Turbo DI / TDDi', 'Engine': '1753cc 66KW 90HP C9DA;C9DB;C9DC'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2000', 'Variant': 'Diesel Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '1.8 Turbo DI / TDDi', 'Engine': '1753cc 66KW 90HP C9DA;C9DB;C9DC'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '1999', 'Variant': 'Diesel Saloon', 'BodyStyle': 'FWD I DFW', 'Cars Type': '1.8 Turbo DI / TDDi', 'Engine': '1753cc 66KW 90HP C9DA;C9DB;C9DC'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2003', 'Variant': 'Diesel Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '1.8 TDCi', 'Engine': '1753cc 74KW 100HP FFDA'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2004', 'Variant': 'Diesel Saloon', 'BodyStyle': 'FWD I DFW', 'Cars Type': '1.8 TDCi', 'Engine': '1753cc 74KW 100HP FFDA'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2002', 'Variant': 'Diesel Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '1.8 TDCi', 'Engine': '1753cc 74KW 100HP FFDA'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2004', 'Variant': 'Diesel Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '1.8 TDCi', 'Engine': '1753cc 74KW 100HP FFDA'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2003', 'Variant': 'Diesel Saloon', 'BodyStyle': 'FWD I DFW', 'Cars Type': '1.8 TDCi', 'Engine': '1753cc 74KW 100HP FFDA'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2003', 'Variant': 'Diesel Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '1.8 TDCi', 'Engine': '1753cc 74KW 100HP FFDA'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2004', 'Variant': 'Diesel Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '1.8 TDCi', 'Engine': '1753cc 74KW 100HP FFDA'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2002', 'Variant': 'Diesel Saloon', 'BodyStyle': 'FWD I DFW', 'Cars Type': '1.8 TDCi', 'Engine': '1753cc 74KW 100HP FFDA'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2002', 'Variant': 'Diesel Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '1.8 TDCi', 'Engine': '1753cc 74KW 100HP FFDA'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2003', 'Variant': 'Diesel Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '1.8 TDCi', 'Engine': '1753cc 85KW 115HP F9DA;F9DB'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2003', 'Variant': 'Diesel Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '1.8 TDCi', 'Engine': '1753cc 85KW 115HP F9DA;F9DB'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2002', 'Variant': 'Diesel Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '1.8 TDCi', 'Engine': '1753cc 85KW 115HP F9DA;F9DB'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2002', 'Variant': 'Diesel Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '1.8 TDCi', 'Engine': '1753cc 85KW 115HP F9DA;F9DB'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2002', 'Variant': 'Diesel Saloon', 'BodyStyle': 'FWD I DFW', 'Cars Type': '1.8 TDCi', 'Engine': '1753cc 85KW 115HP F9DA;F9DB'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2004', 'Variant': 'Diesel Saloon', 'BodyStyle': 'FWD I DFW', 'Cars Type': '1.8 TDCi', 'Engine': '1753cc 85KW 115HP F9DA;F9DB'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2003', 'Variant': 'Diesel Saloon', 'BodyStyle': 'FWD I DFW', 'Cars Type': '1.8 TDCi', 'Engine': '1753cc 85KW 115HP F9DA;F9DB'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2001', 'Variant': 'Diesel Saloon', 'BodyStyle': 'FWD I DFW', 'Cars Type': '1.8 TDCi', 'Engine': '1753cc 85KW 115HP F9DA;F9DB'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2001', 'Variant': 'Diesel Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '1.8 TDCi', 'Engine': '1753cc 85KW 115HP F9DA;F9DB'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2004', 'Variant': 'Diesel Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '1.8 TDCi', 'Engine': '1753cc 85KW 115HP F9DA;F9DB'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2001', 'Variant': 'Diesel Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '1.8 TDCi', 'Engine': '1753cc 85KW 115HP F9DA;F9DB'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2004', 'Variant': 'Diesel Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '1.8 TDCi', 'Engine': '1753cc 85KW 115HP F9DA;F9DB'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2004', 'Variant': 'Petrol Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '1.8 Bi-Fuel', 'Engine': '1796cc 82KW 111HP EYDL'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2003', 'Variant': 'Petrol Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '1.8 Bi-Fuel', 'Engine': '1796cc 82KW 111HP EYDL'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2004', 'Variant': 'Petrol Saloon', 'BodyStyle': 'FWD I DFW', 'Cars Type': '1.8 16V', 'Engine': '1796cc 85KW 115HP EYDB;EYDC;EYDD;EYDE;EYDF;EYDG;EYDI;EYDJ;EYDL'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2001', 'Variant': 'Petrol Saloon', 'BodyStyle': 'FWD I DFW', 'Cars Type': '1.8 16V', 'Engine': '1796cc 85KW 115HP EYDB;EYDC;EYDD;EYDE;EYDF;EYDG;EYDI;EYDJ;EYDL'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2002', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '1.8 16V', 'Engine': '1796cc 85KW 115HP EYDB;EYDC;EYDD;EYDE;EYDF;EYDG;EYDI;EYDJ;EYDL'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2001', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '1.8 16V', 'Engine': '1796cc 85KW 115HP EYDB;EYDC;EYDD;EYDE;EYDF;EYDG;EYDI;EYDJ;EYDL'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2000', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '1.8 16V', 'Engine': '1796cc 85KW 115HP EYDB;EYDC;EYDD;EYDE;EYDF;EYDG;EYDI;EYDJ;EYDL'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2003', 'Variant': 'Petrol Saloon', 'BodyStyle': 'FWD I DFW', 'Cars Type': '1.8 16V', 'Engine': '1796cc 85KW 115HP EYDB;EYDC;EYDD;EYDE;EYDF;EYDG;EYDI;EYDJ;EYDL'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '1999', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '1.8 16V', 'Engine': '1796cc 85KW 115HP EYDB;EYDC;EYDD;EYDE;EYDF;EYDG;EYDI;EYDJ;EYDL'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2002', 'Variant': 'Petrol Saloon', 'BodyStyle': 'FWD I DFW', 'Cars Type': '1.8 16V', 'Engine': '1796cc 85KW 115HP EYDB;EYDC;EYDD;EYDE;EYDF;EYDG;EYDI;EYDJ;EYDL'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '1998', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '1.8 16V', 'Engine': '1796cc 85KW 115HP EYDB;EYDC;EYDD;EYDE;EYDF;EYDG;EYDI;EYDJ;EYDL'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2003', 'Variant': 'Petrol Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '1.8 16V', 'Engine': '1796cc 85KW 115HP EYDB;EYDC;EYDD;EYDE;EYDF;EYDG;EYDI;EYDJ;EYDL'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2003', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '1.8 16V', 'Engine': '1796cc 85KW 115HP EYDB;EYDC;EYDD;EYDE;EYDF;EYDG;EYDI;EYDJ;EYDL'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2000', 'Variant': 'Petrol Saloon', 'BodyStyle': 'FWD I DFW', 'Cars Type': '1.8 16V', 'Engine': '1796cc 85KW 115HP EYDB;EYDC;EYDD;EYDE;EYDF;EYDG;EYDI;EYDJ;EYDL'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '1999', 'Variant': 'Petrol Saloon', 'BodyStyle': 'FWD I DFW', 'Cars Type': '1.8 16V', 'Engine': '1796cc 85KW 115HP EYDB;EYDC;EYDD;EYDE;EYDF;EYDG;EYDI;EYDJ;EYDL'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '1999', 'Variant': 'Petrol Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '1.8 16V', 'Engine': '1796cc 85KW 115HP EYDB;EYDC;EYDD;EYDE;EYDF;EYDG;EYDI;EYDJ;EYDL'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2000', 'Variant': 'Petrol Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '1.8 16V', 'Engine': '1796cc 85KW 115HP EYDB;EYDC;EYDD;EYDE;EYDF;EYDG;EYDI;EYDJ;EYDL'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2004', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '1.8 16V', 'Engine': '1796cc 85KW 115HP EYDB;EYDC;EYDD;EYDE;EYDF;EYDG;EYDI;EYDJ;EYDL'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2001', 'Variant': 'Petrol Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '1.8 16V', 'Engine': '1796cc 85KW 115HP EYDB;EYDC;EYDD;EYDE;EYDF;EYDG;EYDI;EYDJ;EYDL'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2004', 'Variant': 'Petrol Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '1.8 16V', 'Engine': '1796cc 85KW 115HP EYDB;EYDC;EYDD;EYDE;EYDF;EYDG;EYDI;EYDJ;EYDL'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2002', 'Variant': 'Petrol Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '1.8 16V', 'Engine': '1796cc 85KW 115HP EYDB;EYDC;EYDD;EYDE;EYDF;EYDG;EYDI;EYDJ;EYDL'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2003', 'Variant': 'Petrol Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': 'ST170', 'Engine': '1988cc 127KW 173HP ALDA'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2002', 'Variant': 'Petrol Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': 'ST170', 'Engine': '1988cc 127KW 173HP ALDA'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2003', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': 'ST170', 'Engine': '1988cc 127KW 173HP ALDA'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2004', 'Variant': 'Petrol Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': 'ST170', 'Engine': '1988cc 127KW 173HP ALDA'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2002', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': 'ST170', 'Engine': '1988cc 127KW 173HP ALDA'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2004', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': 'ST170', 'Engine': '1988cc 127KW 173HP ALDA'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2003', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': 'RS', 'Engine': '1988cc 158KW 215HP HMDA'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2002', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': 'RS', 'Engine': '1988cc 158KW 215HP HMDA'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2004', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': 'RS', 'Engine': '1988cc 158KW 215HP HMDA'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2002', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '2.0 16V', 'Engine': '1988cc 96KW 131HP EDDB;EDDC;EDDD;EDDF'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2001', 'Variant': 'Petrol Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '2.0 16V', 'Engine': '1988cc 96KW 131HP EDDB;EDDC;EDDD;EDDF'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2003', 'Variant': 'Petrol Saloon', 'BodyStyle': 'FWD I DFW', 'Cars Type': '2.0 16V', 'Engine': '1988cc 96KW 131HP EDDB;EDDC;EDDD;EDDF'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2004', 'Variant': 'Petrol Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '2.0 16V', 'Engine': '1988cc 96KW 131HP EDDB;EDDC;EDDD;EDDF'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2000', 'Variant': 'Petrol Saloon', 'BodyStyle': 'FWD I DFW', 'Cars Type': '2.0 16V', 'Engine': '1988cc 96KW 131HP EDDB;EDDC;EDDD;EDDF'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '1999', 'Variant': 'Petrol Saloon', 'BodyStyle': 'FWD I DFW', 'Cars Type': '2.0 16V', 'Engine': '1988cc 96KW 131HP EDDB;EDDC;EDDD;EDDF'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2001', 'Variant': 'Petrol Saloon', 'BodyStyle': 'FWD I DFW', 'Cars Type': '2.0 16V', 'Engine': '1988cc 96KW 131HP EDDB;EDDC;EDDD;EDDF'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '1998', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '2.0 16V', 'Engine': '1988cc 96KW 131HP EDDB;EDDC;EDDD;EDDF'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2000', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '2.0 16V', 'Engine': '1988cc 96KW 131HP EDDB;EDDC;EDDD;EDDF'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2003', 'Variant': 'Petrol Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '2.0 16V', 'Engine': '1988cc 96KW 131HP EDDB;EDDC;EDDD;EDDF'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2002', 'Variant': 'Petrol Saloon', 'BodyStyle': 'FWD I DFW', 'Cars Type': '2.0 16V', 'Engine': '1988cc 96KW 131HP EDDB;EDDC;EDDD;EDDF'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '1999', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '2.0 16V', 'Engine': '1988cc 96KW 131HP EDDB;EDDC;EDDD;EDDF'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2000', 'Variant': 'Petrol Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '2.0 16V', 'Engine': '1988cc 96KW 131HP EDDB;EDDC;EDDD;EDDF'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2002', 'Variant': 'Petrol Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '2.0 16V', 'Engine': '1988cc 96KW 131HP EDDB;EDDC;EDDD;EDDF'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2001', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '2.0 16V', 'Engine': '1988cc 96KW 131HP EDDB;EDDC;EDDD;EDDF'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2004', 'Variant': 'Petrol Saloon', 'BodyStyle': 'FWD I DFW', 'Cars Type': '2.0 16V', 'Engine': '1988cc 96KW 131HP EDDB;EDDC;EDDD;EDDF'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '1999', 'Variant': 'Petrol Estate', 'BodyStyle': 'FWD I DNW', 'Cars Type': '2.0 16V', 'Engine': '1988cc 96KW 131HP EDDB;EDDC;EDDD;EDDF'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2004', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '2.0 16V', 'Engine': '1988cc 96KW 131HP EDDB;EDDC;EDDD;EDDF'}, {'Car Make': 'Ford', 'Model': 'Focus', 'Cars Year': '2003', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD I DAW,DBW', 'Cars Type': '2.0 16V', 'Engine': '1988cc 96KW 131HP EDDB;EDDC;EDDD;EDDF'}, {'Car Make': 'Ford', 'Model': 'Mondeo', 'Cars Year': '2002', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD III B5Y', 'Cars Type': '1.8 16V', 'Engine': '1798cc 81KW 110HP CGBA;CGBB'}, {'Car Make': 'Ford', 'Model': 'Mondeo', 'Cars Year': '2002', 'Variant': 'Petrol Estate', 'BodyStyle': 'FWD III BWY', 'Cars Type': '1.8 16V', 'Engine': '1798cc 81KW 110HP CGBA;CGBB'}, {'Car Make': 'Ford', 'Model': 'Mondeo', 'Cars Year': '2003', 'Variant': 'Petrol Saloon', 'BodyStyle': 'FWD Mk III B4Y', 'Cars Type': '1.8 16V', 'Engine': '1798cc 81KW 110HP CGBA;CGBB'}, {'Car Make': 'Ford', 'Model': 'Mondeo', 'Cars Year': '2006', 'Variant': 'Petrol Estate', 'BodyStyle': 'FWD III BWY', 'Cars Type': '1.8 16V', 'Engine': '1798cc 81KW 110HP CGBA;CGBB'}, {'Car Make': 'Ford', 'Model': 'Mondeo', 'Cars Year': '2005', 'Variant': 'Petrol Estate', 'BodyStyle': 'FWD III BWY', 'Cars Type': '1.8 16V', 'Engine': '1798cc 81KW 110HP CGBA;CGBB'}, {'Car Make': 'Ford', 'Model': 'Mondeo', 'Cars Year': '2005', 'Variant': 'Petrol Saloon', 'BodyStyle': 'FWD Mk III B4Y', 'Cars Type': '1.8 16V', 'Engine': '1798cc 81KW 110HP CGBA;CGBB'}, {'Car Make': 'Ford', 'Model': 'Mondeo', 'Cars Year': '2005', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD III B5Y', 'Cars Type': '1.8 16V', 'Engine': '1798cc 81KW 110HP CGBA;CGBB'}, {'Car Make': 'Ford', 'Model': 'Mondeo', 'Cars Year': '2006', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD III B5Y', 'Cars Type': '1.8 16V', 'Engine': '1798cc 81KW 110HP CGBA;CGBB'}, {'Car Make': 'Ford', 'Model': 'Mondeo', 'Cars Year': '2003', 'Variant': 'Petrol Estate', 'BodyStyle': 'FWD III BWY', 'Cars Type': '1.8 16V', 'Engine': '1798cc 81KW 110HP CGBA;CGBB'}, {'Car Make': 'Ford', 'Model': 'Mondeo', 'Cars Year': '2006', 'Variant': 'Petrol Saloon', 'BodyStyle': 'FWD Mk III B4Y', 'Cars Type': '1.8 16V', 'Engine': '1798cc 81KW 110HP CGBA;CGBB'}, {'Car Make': 'Ford', 'Model': 'Mondeo', 'Cars Year': '2001', 'Variant': 'Petrol Saloon', 'BodyStyle': 'FWD Mk III B4Y', 'Cars Type': '1.8 16V', 'Engine': '1798cc 81KW 110HP CGBA;CGBB'}, {'Car Make': 'Ford', 'Model': 'Mondeo', 'Cars Year': '2004', 'Variant': 'Petrol Estate', 'BodyStyle': 'FWD III BWY', 'Cars Type': '1.8 16V', 'Engine': '1798cc 81KW 110HP CGBA;CGBB'}, {'Car Make': 'Ford', 'Model': 'Mondeo', 'Cars Year': '2004', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD III B5Y', 'Cars Type': '1.8 16V', 'Engine': '1798cc 81KW 110HP CGBA;CGBB'}, {'Car Make': 'Ford', 'Model': 'Mondeo', 'Cars Year': '2001', 'Variant': 'Petrol Estate', 'BodyStyle': 'FWD III BWY', 'Cars Type': '1.8 16V', 'Engine': '1798cc 81KW 110HP CGBA;CGBB'}, {'Car Make': 'Ford', 'Model': 'Mondeo', 'Cars Year': '2004', 'Variant': 'Petrol Saloon', 'BodyStyle': 'FWD Mk III B4Y', 'Cars Type': '1.8 16V', 'Engine': '1798cc 81KW 110HP CGBA;CGBB'}, {'Car Make': 'Ford', 'Model': 'Mondeo', 'Cars Year': '2000', 'Variant': 'Petrol Estate', 'BodyStyle': 'FWD III BWY', 'Cars Type': '1.8 16V', 'Engine': '1798cc 81KW 110HP CGBA;CGBB'}, {'Car Make': 'Ford', 'Model': 'Mondeo', 'Cars Year': '2003', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD III B5Y', 'Cars Type': '1.8 16V', 'Engine': '1798cc 81KW 110HP CGBA;CGBB'}, {'Car Make': 'Ford', 'Model': 'Mondeo', 'Cars Year': '2001', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD III B5Y', 'Cars Type': '1.8 16V', 'Engine': '1798cc 81KW 110HP CGBA;CGBB'}, {'Car Make': 'Ford', 'Model': 'Mondeo', 'Cars Year': '2000', 'Variant': 'Petrol Saloon', 'BodyStyle': 'FWD Mk III B4Y', 'Cars Type': '1.8 16V', 'Engine': '1798cc 81KW 110HP CGBA;CGBB'}, {'Car Make': 'Ford', 'Model': 'Mondeo', 'Cars Year': '2002', 'Variant': 'Petrol Saloon', 'BodyStyle': 'FWD Mk III B4Y', 'Cars Type': '1.8 16V', 'Engine': '1798cc 81KW 110HP CGBA;CGBB'}, {'Car Make': 'Ford', 'Model': 'Mondeo', 'Cars Year': '2000', 'Variant': 'Petrol Hatch', 'BodyStyle': 'FWD III B5Y', 'Cars Type': '1.8 16V', 'Engine': '1798cc 81KW 110HP CGBA;CGBB'}, {'Car Make': 'Ford', 'Model': 'Mondeo', 'Cars Year': '2000', 'Variant': 'Petrol Estate', 'BodyStyle': 'FWD III BWY', 'Cars Type': '1.8 16V', 'Engine': '1798cc 92KW 125HP CHBA;CHBB'}, {'Car Make': 'Ford', 'Model': 'Mondeo', 'Cars Year': '2003', 'Variant': 'Pe</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>1065689</v>
+      </c>
+      <c r="C25" t="n">
+        <v>404562488093</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/NjAwWDgwMA==/z/RaQAAOSwuK9lMpjw/$_1.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>6032</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Manuals &amp; Literature:Other Repair Manuals &amp; Literature</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>CHEVROLET TRUCK</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1GCDT19Z5S8197039</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>694.GM8195</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>S10PICKUP</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>CHEVROLET TRUCK</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="n">
+        <v>1995</v>
+      </c>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>S10PICKUP 1995 Owners Manual 1065689</t>
+        </is>
+      </c>
+      <c r="Y25" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="Z25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>1065813</v>
+      </c>
+      <c r="C26" t="n">
+        <v>194018310689</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/MTE0M1gxMTQz/z/CtkAAOSwmlFga2pp/$_12.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>14990</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Consumer Electronics:TV, Video &amp; Home Audio:Home Audio:Home Speakers &amp; Subwoofers</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>RP-404C</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>Klipsch</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Center Channel Speaker</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Klipsch RP-404C Center Speaker in Ebony</t>
+        </is>
+      </c>
+      <c r="Y26" t="n">
+        <v>299.99</v>
+      </c>
+      <c r="Z26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="n">
+        <v>1065815</v>
+      </c>
+      <c r="C27" t="n">
+        <v>404301502824</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/MTYwMFgxNjAw/z/wfwAAOSwl9BkbGs0/$_57.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>33601</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Engine Cooling Components:Coolant Hoses</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Tesla</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0477-0504</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>106581500C / 106581500 / 1065815-00-C</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>106581500C / 106581500 / 1065815-00-C</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>Tesla</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>['Front']</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Hose</t>
+        </is>
+      </c>
+      <c r="V27" t="n">
+        <v>2017</v>
+      </c>
+      <c r="W27" t="n">
+        <v>4</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>2017 - 2020 TESLA MODEL S AWD BATTERY COOLANT WATER PUMP HOSE TUBE PIPE OEM</t>
+        </is>
+      </c>
+      <c r="Y27" t="n">
+        <v>64.98999999999999</v>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>[{'Year': '2020', 'Make': 'Tesla', 'Model': 'S', 'Trim': 'Long Range Plus Sedan 4-Door', 'Engine': 'BATTERY EV (EV/BEV)'}, {'Year': '2019', 'Make': 'Tesla', 'Model': 'S', 'Trim': '75D Sedan 4-Door', 'Engine': 'BATTERY EV (EV/BEV)'}, {'Year': '2018', 'Make': 'Tesla', 'Model': 'S', 'Trim': '75D Sedan 4-Door', 'Engine': 'BATTERY EV (EV/BEV)'}, {'Year': '2017', 'Make': 'Tesla', 'Model': 'S', 'Trim': '75D Sedan 4-Door', 'Engine': 'BATTERY EV (EV/BEV)'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="n">
+        <v>1065894</v>
+      </c>
+      <c r="C28" t="n">
+        <v>186297793000</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/OTUyWDE2MDA=/z/~BgAAOSwLy9lYqTE/$_12.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>177709</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Electric, Hybrid &amp; PHEV Specific Parts:Other Electric, Hybrid &amp; PHEV Specific Parts</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>1065894-00-C</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>69763</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Tesla</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>TESLA MODEL S X HV CONTACTORS BATTERY ANCILLARY UNIT 1065894-00-C 1245</t>
+        </is>
+      </c>
+      <c r="Y28" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>1065967</v>
+      </c>
+      <c r="C29" t="n">
+        <v>115992746943</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/NzUwWDc1MA==/z/ixMAAOSwZzBjKGdt/$_12.PNG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>177976</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Motorcycle &amp; Scooter Parts &amp; Accessories:Engines &amp; Engine Parts:Pistons, Rings &amp; Piston Kits</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>RAD Powersports</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Fits 2003 Yamaha TTR250 Piston Kit 7695601</t>
+        </is>
+      </c>
+      <c r="Y29" t="n">
+        <v>155.35</v>
+      </c>
+      <c r="Z29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>1065936</v>
+      </c>
+      <c r="C30" t="n">
+        <v>144843111373</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/MTYwMFgxNjAw/z/a3sAAOSwc~Zjj3GL/$_1.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>539</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Coins &amp; Paper Money:Coins: World:Europe:France</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="n">
+        <v>1720</v>
+      </c>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>[#1065936] Coin, France, Louis XV, louis d'or aux 2 L, 1720, Paris, flan neuf, p</t>
+        </is>
+      </c>
+      <c r="Y30" t="n">
+        <v>10127</v>
+      </c>
+      <c r="Z30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="n">
+        <v>1065943</v>
+      </c>
+      <c r="C31" t="n">
+        <v>355401000374</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/MTIwNlgxNjAw/z/KSwAAOSw06BlrfL4/$_1.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>115280</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Sporting Goods:Golf:Golf Clubs &amp; Equipment:Golf Clubs</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>MILLED GRIND 2 CHROME</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>TAYLORMADE</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Taylormade Milled Grind 2 Chrome Wedge 58°-8 L-Grind Stiff DG 1065943 Good</t>
+        </is>
+      </c>
+      <c r="Y31" t="n">
+        <v>51.99</v>
+      </c>
+      <c r="Z31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="n">
+        <v>1065962</v>
+      </c>
+      <c r="C32" t="n">
+        <v>404203270689</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/NjAwWDgwMA==/z/TA8AAOSwx1NkEPn~/$_1.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>33543</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Air Conditioning &amp; Heating:A/C Compressors &amp; Clutches</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Pontiac</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2G4WC532451274739</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>682-00102</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Does Not Apply</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>BUICK</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="n">
+        <v>2004</v>
+      </c>
+      <c r="W32" t="n">
+        <v>43</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>AC Compressor Fits 05-09 ALLURE 1065962</t>
+        </is>
+      </c>
+      <c r="Y32" t="n">
+        <v>85</v>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>[{'Year': '2009', 'Make': 'Buick', 'Model': 'Allure', 'Trim': 'CX Sedan 4-Door', 'Engine': '3.8L 3800CC 231Cu. In. V6 GAS OHV Naturally Aspirated'}, {'Year': '2009', 'Make': 'Buick', 'Model': 'Allure', 'Trim': 'CXL Sedan 4-Door', 'Engine': '3.8L 3800CC 231Cu. In. V6 GAS OHV Naturally Aspirated'}, {'Year': '2009', 'Make': 'Buick', 'Model': 'LaCrosse', 'Trim': 'CX Sedan 4-Door', 'Engine': '3.8L 3800CC 231Cu. In. V6 GAS OHV Naturally Aspirated'}, {'Year': '2009', 'Make': 'Buick', 'Model': 'LaCrosse', 'Trim': 'CXL Sedan 4-Door', 'Engine': '3.8L 3800CC 231Cu. In. V6 GAS OHV Naturally Aspirated'}, {'Year': '2008', 'Make': 'Buick', 'Model': 'Allure', 'Trim': 'CX Sedan 4-Door', 'Engine': '3.8L 3800CC 231Cu. In. V6 GAS OHV Naturally Aspirated'}, {'Year': '2008', 'Make': 'Buick', 'Model': 'Allure', 'Trim': 'CXL Sedan 4-Door', 'Engine': '3.8L 3800CC 231Cu. In. V6 GAS OHV Naturally Aspirated'}, {'Year': '2008', 'Make': 'Buick', 'Model': 'LaCrosse', 'Trim': 'CX Sedan 4-Door', 'Engine': '3.8L 3800CC 231Cu. In. V6 GAS OHV Naturally Aspirated'}, {'Year': '2008', 'Make': 'Buick', 'Model': 'LaCrosse', 'Trim': 'CXL Sedan 4-Door', 'Engine': '3.8L 3800CC 231Cu. In. V6 GAS OHV Naturally Aspirated'}, {'Year': '2008', 'Make': 'Pontiac', 'Model': 'Grand Prix', 'Trim': 'Base Sedan 4-Door', 'Engine': '3.8L 3800CC 231Cu. In. V6 GAS OHV Naturally Aspirated'}, {'Year': '2007', 'Make': 'Buick', 'Model': 'Allure', 'Trim': 'CX Sedan 4-Door', 'Engine': '3.8L 3800CC 231Cu. In. V6 GAS OHV Naturally Aspirated'}, {'Year': '2007', 'Make': 'Buick', 'Model': 'Allure', 'Trim': 'CXL Sedan 4-Door', 'Engine': '3.8L 3800CC 231Cu. In. V6 GAS OHV Naturally Aspirated'}, {'Year': '2007', 'Make': 'Buick', 'Model': 'LaCrosse', 'Trim': 'CX Sedan 4-Door', 'Engine': '3.8L 3800CC 231Cu. In. V6 GAS OHV Naturally Aspirated'}, {'Year': '2007', 'Make': 'Buick', 'Model': 'LaCrosse', 'Trim': 'CXL Sedan 4-Door', 'Engine': '3.8L 3800CC 231Cu. In. V6 GAS OHV Naturally Aspirated'}, {'Year': '2007', 'Make': 'Pontiac', 'Model': 'Grand Prix', 'Trim': 'Base Sedan 4-Door', 'Engine': '3.8L 3800CC 231Cu. In. V6 GAS OHV Naturally Aspirated'}, {'Year': '2007', 'Make': 'Pontiac', 'Model': 'Grand Prix', 'Trim': 'GT Sedan 4-Door', 'Engine': '3.8L 3800CC 231Cu. In. V6 GAS OHV Supercharged'}, {'Year': '2006', 'Make': 'Buick', 'Model': 'Allure', 'Trim': 'CX Sedan 4-Door', 'Engine': '3.8L 3800CC 231Cu. In. V6 GAS OHV Naturally Aspirated'}, {'Year': '2006', 'Make': 'Buick', 'Model': 'Allure', 'Trim': 'CXL Sedan 4-Door', 'Engine': '3.8L 3800CC 231Cu. In. V6 GAS OHV Naturally Aspirated'}, {'Year': '2006', 'Make': 'Buick', 'Model': 'LaCrosse', 'Trim': 'CX Sedan 4-Door', 'Engine': '3.8L 3800CC 231Cu. In. V6 GAS OHV Naturally Aspirated'}, {'Year': '2006', 'Make': 'Buick', 'Model': 'LaCrosse', 'Trim': 'CXL Sedan 4-Door', 'Engine': '3.8L 3800CC 231Cu. In. V6 GAS OHV Naturally Aspirated'}, {'Year': '2006', 'Make': 'Pontiac', 'Model': 'Grand Prix', 'Trim': 'Base Sedan 4-Door', 'Engine': '3.8L 3800CC 231Cu. In. V6 GAS OHV Naturally Aspirated'}, {'Year': '2006', 'Make': 'Pontiac', 'Model': 'Grand Prix', 'Trim': 'GT Sedan 4-Door', 'Engine': '3.8L 3800CC 231Cu. In. V6 GAS OHV Supercharged'}, {'Year': '2005', 'Make': 'Buick', 'Model': 'Allure', 'Trim': 'CX Sedan 4-Door', 'Engine': '3.8L 3800CC 231Cu. In. V6 GAS OHV Naturally Aspirated'}, {'Year': '2005', 'Make': 'Buick', 'Model': 'Allure', 'Trim': 'CXL Sedan 4-Door', 'Engine': '3.8L 3800CC 231Cu. In. V6 GAS OHV Naturally Aspirated'}, {'Year': '2005', 'Make': 'Buick', 'Model': 'LaCrosse', 'Trim': 'CX Sedan 4-Door', 'Engine': '3.8L 3800CC 231Cu. In. V6 GAS OHV Naturally Aspirated'}, {'Year': '2005', 'Make': 'Buick', 'Model': 'LaCrosse', 'Trim': 'CXL Sedan 4-Door', 'Engine': '3.8L 3800CC 231Cu. In. V6 GAS OHV Naturally Aspirated'}, {'Year': '2005', 'Make': 'Chevrolet', 'Model': 'Impala', 'Trim': 'Base Sedan 4-Door', 'Engine': '3.8L 3800CC 231Cu. In. V6 GAS OHV Naturally Aspirated'}, {'Year': '2005', 'Make': 'Chevrolet', 'Model': 'Impala', 'Trim': 'LS Sedan 4-Door', 'Engine': '3.8L 3800CC 231Cu. In. V6 GAS OHV Naturally Aspirated'}, {'Year': '2005', 'Make': 'Chevrolet', 'Model': 'Impala', 'Trim': 'Police Sedan 4-Door', 'Engine': '3.8L 3800CC 231Cu. In. V6 GAS OHV Naturally Aspirated'}, {'Year': '2005', 'Make': 'Chevrolet', 'Model': 'Impala', 'Trim': 'SS Sedan 4-Door', 'Engine': '3.8L 3800CC 231Cu. In. V6 GAS OHV Supercharged'}, {'Year': '2005', 'Make': 'Chevrolet', 'Model': 'Monte Carlo', 'Trim': 'LT Coupe 2-Door', 'Engine': '3.8L 3800CC 231Cu. In. V6 GAS OHV Naturally Aspirated'}, {'Year': '2005', 'Make': 'Chevrolet', 'Model': 'Monte Carlo', 'Trim': 'SS Coupe 2-Door', 'Engine': '3.8L 3800CC 231Cu. In. V6 GAS OHV Supercharged'}, {'Year': '2005', 'Make': 'Pontiac', 'Model': 'Grand Prix', 'Trim': 'Base Sedan 4-Door', 'Engine': '3.8L 3800CC 231Cu. In. V6 GAS OHV Naturally Aspirated'}, {'Year': '2005', 'Make': 'Pontiac', 'Model': 'Grand Prix', 'Trim': 'GT Sedan 4-Door', 'Engine': '3.8L 3800CC 231Cu. In. V6 GAS OHV Naturally Aspirated'}, {'Year': '2005', 'Make': 'Pontiac', 'Model': 'Grand Prix', 'Trim': 'GTP Sedan 4-Door', 'Engine': '3.8L 3800CC 231Cu. In. V6 GAS OHV Supercharged'}, {'Year': '2004', 'Make': 'Chevrolet', 'Model': 'Impala', 'Trim': 'Base Sedan 4-Door', 'Engine': '3.8L 3800CC 231Cu. In. V6 GAS OHV Naturally Aspirated'}, {'Year': '2004', 'Make': 'Chevrolet', 'Model': 'Impala', 'Trim': 'LS Sedan 4-Door', 'Engine': '3.8L 3800CC 231Cu. In. V6 GAS OHV Naturally Aspirated'}, {'Year': '2004', 'Make': 'Chevrolet', 'Model': 'Impala', 'Trim': 'Police Sedan 4-Door', 'Engine': '3.8L 3800CC 231Cu. In. V6 GAS OHV Naturally Aspirated'}, {'Year': '2004', 'Make': 'Chevrolet', 'Model': 'Impala', 'Trim': 'SS Sedan 4-Door', 'Engine': '3.8L 3800CC 231Cu. In. V6 GAS OHV Supercharged'}, {'Year': '2004', 'Make': 'Chevrolet', 'Model': 'Monte Carlo', 'Trim': 'SS Coupe 2-Door', 'Engine': '3.8L 3800CC 231Cu. In. V6 GAS OHV Naturally Aspirated'}, {'Year': '2004', 'Make': 'Chevrolet', 'Model': 'Monte Carlo', 'Trim': 'SS Coupe 2-Door', 'Engine': '3.8L 3800CC 231Cu. In. V6 GAS OHV Supercharged'}, {'Year': '2004', 'Make': 'Pontiac', 'Model': 'Grand Prix', 'Trim': 'GT1 Sedan 4-Door', 'Engine': '3.8L 3800CC 231Cu. In. V6 GAS OHV Naturally Aspirated'}, {'Year': '2004', 'Make': 'Pontiac', 'Model': 'Grand Prix', 'Trim': 'GT2 Sedan 4-Door', 'Engine': '3.8L 3800CC 231Cu. In. V6 GAS OHV Naturally Aspirated'}, {'Year': '2004', 'Make': 'Pontiac', 'Model': 'Grand Prix', 'Trim': 'GTP Sedan 4-Door', 'Engine': '3.8L 3800CC 231Cu. In. V6 GAS OHV Supercharged'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="n">
+        <v>1065977</v>
+      </c>
+      <c r="C33" t="n">
+        <v>355358471852</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/MTQ0OVgxNjAw/z/eoMAAOSwZo1lm3vf/$_1.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>115280</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Sporting Goods:Golf:Golf Clubs &amp; Equipment:Golf Clubs</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>FORGED SATIN</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>SUB 70</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Sub 70 Forged Satin Wedge 46°- Kbs Stl 1065977 Good IE2</t>
+        </is>
+      </c>
+      <c r="Y33" t="n">
+        <v>67.98999999999999</v>
+      </c>
+      <c r="Z33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="n">
+        <v>1065979</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>355139060761</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/MTYwMFgxNjAw/z/fZQAAOSwGNFlOpD5/$_12.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>262082</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Air Conditioning &amp; Heating:HVAC Control Unit Parts</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>173138 10 , 17313810</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>6131 9261102-01 , 61319261102 , 9261102</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>BI926110201 , BH9287341 01 , BH9287341</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>HVAC Control Panel</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>☑️ BMW F20 F21 F22 F30 F31 F34 F32 AC Heater Climate Radio Control Panel 9287341</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output/chunk_15_18-02-2024.xlsx
+++ b/output/chunk_15_18-02-2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z34"/>
+  <dimension ref="A1:Z36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2698,20 +2698,16 @@
       <c r="B34" t="n">
         <v>1065979</v>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>355139060761</t>
-        </is>
+      <c r="C34" t="n">
+        <v>355139060761</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
           <t>['https://i.ebayimg.com/00/s/MTYwMFgxNjAw/z/fZQAAOSwGNFlOpD5/$_12.JPG?set_id=880000500F']</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>262082</t>
-        </is>
+      <c r="E34" t="n">
+        <v>262082</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2764,12 +2760,140 @@
           <t>☑️ BMW F20 F21 F22 F30 F31 F34 F32 AC Heater Climate Radio Control Panel 9287341</t>
         </is>
       </c>
-      <c r="Y34" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
+      <c r="Y34" t="n">
+        <v>65</v>
       </c>
       <c r="Z34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="n">
+        <v>1065981</v>
+      </c>
+      <c r="C35" t="n">
+        <v>134829833579</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/NzUwWDc1MA==/z/2t4AAOSwr2ZjKGdt/$_12.PNG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>43982</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:ATV, Side-by-Side &amp; UTV Parts &amp; Accessories:Transmission &amp; Drivetrain:Other Transmission &amp; Drivetrain Parts</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Kawasaki</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Mule 3010</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>RAD Powersports</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Inner CV Joint Kit</t>
+        </is>
+      </c>
+      <c r="V35" t="n">
+        <v>2003</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Fits 2003 Kawasaki KAF620 Mule 3010 4x4 Heavy Duty Joint Kit 1895601</t>
+        </is>
+      </c>
+      <c r="Y35" t="n">
+        <v>54.52</v>
+      </c>
+      <c r="Z35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="n">
+        <v>1065983</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>223738150344</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/MTIwMFgxNjAw/z/rhgAAOSwXOldwxqO/$_57.JPG?set_id=8800005007']</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>261650</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Collectibles:Jewelry</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Swarovski Mint Bracelet 1065983 (New In Original Swarovski Box) Retail $150.00</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>62.99</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
